--- a/data/dados_Petrolina_PE.xlsx
+++ b/data/dados_Petrolina_PE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="469">
   <si>
     <t>casos</t>
   </si>
@@ -1394,6 +1394,33 @@
   </si>
   <si>
     <t>19/jun/2021</t>
+  </si>
+  <si>
+    <t>20/jun/2021</t>
+  </si>
+  <si>
+    <t>21/jun/2021</t>
+  </si>
+  <si>
+    <t>22/jun/2021</t>
+  </si>
+  <si>
+    <t>23/jun/2021</t>
+  </si>
+  <si>
+    <t>24/jun/2021</t>
+  </si>
+  <si>
+    <t>25/jun/2021</t>
+  </si>
+  <si>
+    <t>26/jun/2021</t>
+  </si>
+  <si>
+    <t>27/jun/2021</t>
+  </si>
+  <si>
+    <t>28/jun/2021</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G455"/>
+  <dimension ref="A1:G464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12201,22 +12228,229 @@
         <v>459</v>
       </c>
       <c r="B455">
-        <v>26985</v>
+        <v>27090</v>
       </c>
       <c r="C455">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D455">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F455">
         <v>354317</v>
       </c>
       <c r="G455" t="s">
         <v>459</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B456">
+        <v>27106</v>
+      </c>
+      <c r="C456">
+        <v>455</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>16</v>
+      </c>
+      <c r="F456">
+        <v>354317</v>
+      </c>
+      <c r="G456" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B457">
+        <v>27108</v>
+      </c>
+      <c r="C457">
+        <v>456</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>2</v>
+      </c>
+      <c r="F457">
+        <v>354317</v>
+      </c>
+      <c r="G457" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B458">
+        <v>27186</v>
+      </c>
+      <c r="C458">
+        <v>458</v>
+      </c>
+      <c r="D458">
+        <v>2</v>
+      </c>
+      <c r="E458">
+        <v>78</v>
+      </c>
+      <c r="F458">
+        <v>354317</v>
+      </c>
+      <c r="G458" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B459">
+        <v>27312</v>
+      </c>
+      <c r="C459">
+        <v>459</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+      <c r="E459">
+        <v>126</v>
+      </c>
+      <c r="F459">
+        <v>354317</v>
+      </c>
+      <c r="G459" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B460">
+        <v>27370</v>
+      </c>
+      <c r="C460">
+        <v>459</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>58</v>
+      </c>
+      <c r="F460">
+        <v>354317</v>
+      </c>
+      <c r="G460" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B461">
+        <v>27392</v>
+      </c>
+      <c r="C461">
+        <v>460</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>22</v>
+      </c>
+      <c r="F461">
+        <v>354317</v>
+      </c>
+      <c r="G461" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B462">
+        <v>27414</v>
+      </c>
+      <c r="C462">
+        <v>460</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>22</v>
+      </c>
+      <c r="F462">
+        <v>354317</v>
+      </c>
+      <c r="G462" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B463">
+        <v>27421</v>
+      </c>
+      <c r="C463">
+        <v>460</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>7</v>
+      </c>
+      <c r="F463">
+        <v>354317</v>
+      </c>
+      <c r="G463" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B464">
+        <v>27421</v>
+      </c>
+      <c r="C464">
+        <v>460</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>354317</v>
+      </c>
+      <c r="G464" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/data/dados_Petrolina_PE.xlsx
+++ b/data/dados_Petrolina_PE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="470">
   <si>
     <t>casos</t>
   </si>
@@ -1421,6 +1421,9 @@
   </si>
   <si>
     <t>28/jun/2021</t>
+  </si>
+  <si>
+    <t>29/jun/2021</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G464"/>
+  <dimension ref="A1:G465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12435,22 +12438,45 @@
         <v>468</v>
       </c>
       <c r="B464">
-        <v>27421</v>
+        <v>27432</v>
       </c>
       <c r="C464">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E464">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F464">
         <v>354317</v>
       </c>
       <c r="G464" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B465">
+        <v>27432</v>
+      </c>
+      <c r="C465">
+        <v>461</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>354317</v>
+      </c>
+      <c r="G465" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/data/dados_Petrolina_PE.xlsx
+++ b/data/dados_Petrolina_PE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F501"/>
+  <dimension ref="A1:F580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11445,18 +11445,1756 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>29663</v>
+        <v>29700</v>
       </c>
       <c r="C501" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F501" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>05/ago/2021</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>29748</v>
+      </c>
+      <c r="C502" t="n">
+        <v>493</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0</v>
+      </c>
+      <c r="E502" t="n">
+        <v>48</v>
+      </c>
+      <c r="F502" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>06/ago/2021</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>29762</v>
+      </c>
+      <c r="C503" t="n">
+        <v>496</v>
+      </c>
+      <c r="D503" t="n">
+        <v>3</v>
+      </c>
+      <c r="E503" t="n">
+        <v>14</v>
+      </c>
+      <c r="F503" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>07/ago/2021</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>29805</v>
+      </c>
+      <c r="C504" t="n">
+        <v>497</v>
+      </c>
+      <c r="D504" t="n">
+        <v>1</v>
+      </c>
+      <c r="E504" t="n">
+        <v>43</v>
+      </c>
+      <c r="F504" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>08/ago/2021</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>29828</v>
+      </c>
+      <c r="C505" t="n">
+        <v>498</v>
+      </c>
+      <c r="D505" t="n">
+        <v>1</v>
+      </c>
+      <c r="E505" t="n">
+        <v>23</v>
+      </c>
+      <c r="F505" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>09/ago/2021</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>29828</v>
+      </c>
+      <c r="C506" t="n">
+        <v>498</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0</v>
+      </c>
+      <c r="F506" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>10/ago/2021</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>29879</v>
+      </c>
+      <c r="C507" t="n">
+        <v>498</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0</v>
+      </c>
+      <c r="E507" t="n">
+        <v>51</v>
+      </c>
+      <c r="F507" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>11/ago/2021</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>29928</v>
+      </c>
+      <c r="C508" t="n">
+        <v>500</v>
+      </c>
+      <c r="D508" t="n">
+        <v>2</v>
+      </c>
+      <c r="E508" t="n">
+        <v>49</v>
+      </c>
+      <c r="F508" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>12/ago/2021</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>29988</v>
+      </c>
+      <c r="C509" t="n">
+        <v>500</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0</v>
+      </c>
+      <c r="E509" t="n">
+        <v>60</v>
+      </c>
+      <c r="F509" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>13/ago/2021</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>30041</v>
+      </c>
+      <c r="C510" t="n">
+        <v>500</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0</v>
+      </c>
+      <c r="E510" t="n">
+        <v>53</v>
+      </c>
+      <c r="F510" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>14/ago/2021</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>30090</v>
+      </c>
+      <c r="C511" t="n">
+        <v>500</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0</v>
+      </c>
+      <c r="E511" t="n">
+        <v>49</v>
+      </c>
+      <c r="F511" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>15/ago/2021</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>30091</v>
+      </c>
+      <c r="C512" t="n">
+        <v>500</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0</v>
+      </c>
+      <c r="E512" t="n">
+        <v>1</v>
+      </c>
+      <c r="F512" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>16/ago/2021</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>30088</v>
+      </c>
+      <c r="C513" t="n">
+        <v>500</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+      <c r="E513" t="n">
+        <v>3</v>
+      </c>
+      <c r="F513" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>17/ago/2021</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>30108</v>
+      </c>
+      <c r="C514" t="n">
+        <v>500</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0</v>
+      </c>
+      <c r="E514" t="n">
+        <v>20</v>
+      </c>
+      <c r="F514" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>18/ago/2021</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>30112</v>
+      </c>
+      <c r="C515" t="n">
+        <v>500</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0</v>
+      </c>
+      <c r="E515" t="n">
+        <v>4</v>
+      </c>
+      <c r="F515" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>19/ago/2021</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>30130</v>
+      </c>
+      <c r="C516" t="n">
+        <v>500</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0</v>
+      </c>
+      <c r="E516" t="n">
+        <v>18</v>
+      </c>
+      <c r="F516" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>20/ago/2021</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>30139</v>
+      </c>
+      <c r="C517" t="n">
+        <v>500</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+      <c r="E517" t="n">
+        <v>9</v>
+      </c>
+      <c r="F517" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>21/ago/2021</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>30241</v>
+      </c>
+      <c r="C518" t="n">
+        <v>500</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0</v>
+      </c>
+      <c r="E518" t="n">
+        <v>102</v>
+      </c>
+      <c r="F518" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>22/ago/2021</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>30259</v>
+      </c>
+      <c r="C519" t="n">
+        <v>500</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+      <c r="E519" t="n">
+        <v>18</v>
+      </c>
+      <c r="F519" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>23/ago/2021</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>30259</v>
+      </c>
+      <c r="C520" t="n">
+        <v>500</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0</v>
+      </c>
+      <c r="F520" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>24/ago/2021</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>30284</v>
+      </c>
+      <c r="C521" t="n">
+        <v>501</v>
+      </c>
+      <c r="D521" t="n">
+        <v>1</v>
+      </c>
+      <c r="E521" t="n">
+        <v>25</v>
+      </c>
+      <c r="F521" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>25/ago/2021</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>30330</v>
+      </c>
+      <c r="C522" t="n">
+        <v>501</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0</v>
+      </c>
+      <c r="E522" t="n">
+        <v>46</v>
+      </c>
+      <c r="F522" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>26/ago/2021</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>30400</v>
+      </c>
+      <c r="C523" t="n">
+        <v>502</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1</v>
+      </c>
+      <c r="E523" t="n">
+        <v>70</v>
+      </c>
+      <c r="F523" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>27/ago/2021</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>30404</v>
+      </c>
+      <c r="C524" t="n">
+        <v>502</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>4</v>
+      </c>
+      <c r="F524" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>28/ago/2021</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>30435</v>
+      </c>
+      <c r="C525" t="n">
+        <v>502</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+      <c r="E525" t="n">
+        <v>31</v>
+      </c>
+      <c r="F525" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>29/ago/2021</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>30452</v>
+      </c>
+      <c r="C526" t="n">
+        <v>502</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+      <c r="E526" t="n">
+        <v>17</v>
+      </c>
+      <c r="F526" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>30/ago/2021</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>30457</v>
+      </c>
+      <c r="C527" t="n">
+        <v>502</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
+      <c r="E527" t="n">
+        <v>5</v>
+      </c>
+      <c r="F527" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>31/ago/2021</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>30473</v>
+      </c>
+      <c r="C528" t="n">
+        <v>502</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0</v>
+      </c>
+      <c r="E528" t="n">
+        <v>16</v>
+      </c>
+      <c r="F528" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>01/set/2021</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>30496</v>
+      </c>
+      <c r="C529" t="n">
+        <v>502</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0</v>
+      </c>
+      <c r="E529" t="n">
+        <v>23</v>
+      </c>
+      <c r="F529" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>02/set/2021</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>30510</v>
+      </c>
+      <c r="C530" t="n">
+        <v>500</v>
+      </c>
+      <c r="D530" t="n">
+        <v>2</v>
+      </c>
+      <c r="E530" t="n">
+        <v>14</v>
+      </c>
+      <c r="F530" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>03/set/2021</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>30519</v>
+      </c>
+      <c r="C531" t="n">
+        <v>500</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0</v>
+      </c>
+      <c r="E531" t="n">
+        <v>9</v>
+      </c>
+      <c r="F531" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>04/set/2021</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>30536</v>
+      </c>
+      <c r="C532" t="n">
+        <v>500</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0</v>
+      </c>
+      <c r="E532" t="n">
+        <v>17</v>
+      </c>
+      <c r="F532" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>05/set/2021</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>30538</v>
+      </c>
+      <c r="C533" t="n">
+        <v>501</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1</v>
+      </c>
+      <c r="E533" t="n">
+        <v>2</v>
+      </c>
+      <c r="F533" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>06/set/2021</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>30569</v>
+      </c>
+      <c r="C534" t="n">
+        <v>501</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0</v>
+      </c>
+      <c r="E534" t="n">
+        <v>31</v>
+      </c>
+      <c r="F534" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>07/set/2021</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>30567</v>
+      </c>
+      <c r="C535" t="n">
+        <v>501</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0</v>
+      </c>
+      <c r="E535" t="n">
+        <v>2</v>
+      </c>
+      <c r="F535" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>08/set/2021</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>30722</v>
+      </c>
+      <c r="C536" t="n">
+        <v>501</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0</v>
+      </c>
+      <c r="E536" t="n">
+        <v>155</v>
+      </c>
+      <c r="F536" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>09/set/2021</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>30762</v>
+      </c>
+      <c r="C537" t="n">
+        <v>501</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0</v>
+      </c>
+      <c r="E537" t="n">
+        <v>40</v>
+      </c>
+      <c r="F537" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>10/set/2021</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>30966</v>
+      </c>
+      <c r="C538" t="n">
+        <v>501</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0</v>
+      </c>
+      <c r="E538" t="n">
+        <v>204</v>
+      </c>
+      <c r="F538" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>11/set/2021</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>30969</v>
+      </c>
+      <c r="C539" t="n">
+        <v>502</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1</v>
+      </c>
+      <c r="E539" t="n">
+        <v>3</v>
+      </c>
+      <c r="F539" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>12/set/2021</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>30977</v>
+      </c>
+      <c r="C540" t="n">
+        <v>502</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0</v>
+      </c>
+      <c r="E540" t="n">
+        <v>8</v>
+      </c>
+      <c r="F540" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>13/set/2021</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>30978</v>
+      </c>
+      <c r="C541" t="n">
+        <v>502</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0</v>
+      </c>
+      <c r="E541" t="n">
+        <v>1</v>
+      </c>
+      <c r="F541" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>14/set/2021</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>30985</v>
+      </c>
+      <c r="C542" t="n">
+        <v>503</v>
+      </c>
+      <c r="D542" t="n">
+        <v>1</v>
+      </c>
+      <c r="E542" t="n">
+        <v>7</v>
+      </c>
+      <c r="F542" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>15/set/2021</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>30989</v>
+      </c>
+      <c r="C543" t="n">
+        <v>503</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0</v>
+      </c>
+      <c r="E543" t="n">
+        <v>4</v>
+      </c>
+      <c r="F543" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>16/set/2021</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>30991</v>
+      </c>
+      <c r="C544" t="n">
+        <v>503</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0</v>
+      </c>
+      <c r="E544" t="n">
+        <v>2</v>
+      </c>
+      <c r="F544" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>17/set/2021</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>30993</v>
+      </c>
+      <c r="C545" t="n">
+        <v>501</v>
+      </c>
+      <c r="D545" t="n">
+        <v>2</v>
+      </c>
+      <c r="E545" t="n">
+        <v>2</v>
+      </c>
+      <c r="F545" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>18/set/2021</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>30996</v>
+      </c>
+      <c r="C546" t="n">
+        <v>501</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0</v>
+      </c>
+      <c r="E546" t="n">
+        <v>3</v>
+      </c>
+      <c r="F546" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>19/set/2021</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>30999</v>
+      </c>
+      <c r="C547" t="n">
+        <v>501</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0</v>
+      </c>
+      <c r="E547" t="n">
+        <v>3</v>
+      </c>
+      <c r="F547" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>20/set/2021</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>30998</v>
+      </c>
+      <c r="C548" t="n">
+        <v>501</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0</v>
+      </c>
+      <c r="E548" t="n">
+        <v>1</v>
+      </c>
+      <c r="F548" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>21/set/2021</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>31004</v>
+      </c>
+      <c r="C549" t="n">
+        <v>501</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0</v>
+      </c>
+      <c r="E549" t="n">
+        <v>6</v>
+      </c>
+      <c r="F549" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>22/set/2021</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>31009</v>
+      </c>
+      <c r="C550" t="n">
+        <v>501</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0</v>
+      </c>
+      <c r="E550" t="n">
+        <v>5</v>
+      </c>
+      <c r="F550" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>23/set/2021</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>31013</v>
+      </c>
+      <c r="C551" t="n">
+        <v>501</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0</v>
+      </c>
+      <c r="E551" t="n">
+        <v>4</v>
+      </c>
+      <c r="F551" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>24/set/2021</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>31215</v>
+      </c>
+      <c r="C552" t="n">
+        <v>501</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0</v>
+      </c>
+      <c r="E552" t="n">
+        <v>202</v>
+      </c>
+      <c r="F552" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>25/set/2021</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>31221</v>
+      </c>
+      <c r="C553" t="n">
+        <v>501</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0</v>
+      </c>
+      <c r="E553" t="n">
+        <v>6</v>
+      </c>
+      <c r="F553" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>26/set/2021</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>31227</v>
+      </c>
+      <c r="C554" t="n">
+        <v>501</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0</v>
+      </c>
+      <c r="E554" t="n">
+        <v>6</v>
+      </c>
+      <c r="F554" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>27/set/2021</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>31227</v>
+      </c>
+      <c r="C555" t="n">
+        <v>501</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0</v>
+      </c>
+      <c r="E555" t="n">
+        <v>0</v>
+      </c>
+      <c r="F555" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>28/set/2021</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>31231</v>
+      </c>
+      <c r="C556" t="n">
+        <v>501</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0</v>
+      </c>
+      <c r="E556" t="n">
+        <v>4</v>
+      </c>
+      <c r="F556" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>29/set/2021</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>31247</v>
+      </c>
+      <c r="C557" t="n">
+        <v>501</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0</v>
+      </c>
+      <c r="E557" t="n">
+        <v>16</v>
+      </c>
+      <c r="F557" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>30/set/2021</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>31248</v>
+      </c>
+      <c r="C558" t="n">
+        <v>501</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0</v>
+      </c>
+      <c r="E558" t="n">
+        <v>1</v>
+      </c>
+      <c r="F558" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>01/out/2021</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>31257</v>
+      </c>
+      <c r="C559" t="n">
+        <v>501</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0</v>
+      </c>
+      <c r="E559" t="n">
+        <v>9</v>
+      </c>
+      <c r="F559" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>02/out/2021</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>31264</v>
+      </c>
+      <c r="C560" t="n">
+        <v>501</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0</v>
+      </c>
+      <c r="E560" t="n">
+        <v>7</v>
+      </c>
+      <c r="F560" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>03/out/2021</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>31271</v>
+      </c>
+      <c r="C561" t="n">
+        <v>501</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0</v>
+      </c>
+      <c r="E561" t="n">
+        <v>7</v>
+      </c>
+      <c r="F561" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>04/out/2021</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>31271</v>
+      </c>
+      <c r="C562" t="n">
+        <v>501</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0</v>
+      </c>
+      <c r="F562" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>05/out/2021</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>31277</v>
+      </c>
+      <c r="C563" t="n">
+        <v>501</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0</v>
+      </c>
+      <c r="E563" t="n">
+        <v>6</v>
+      </c>
+      <c r="F563" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>06/out/2021</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>31305</v>
+      </c>
+      <c r="C564" t="n">
+        <v>501</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0</v>
+      </c>
+      <c r="E564" t="n">
+        <v>28</v>
+      </c>
+      <c r="F564" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>07/out/2021</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>31310</v>
+      </c>
+      <c r="C565" t="n">
+        <v>501</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0</v>
+      </c>
+      <c r="E565" t="n">
+        <v>5</v>
+      </c>
+      <c r="F565" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>08/out/2021</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>31329</v>
+      </c>
+      <c r="C566" t="n">
+        <v>502</v>
+      </c>
+      <c r="D566" t="n">
+        <v>1</v>
+      </c>
+      <c r="E566" t="n">
+        <v>19</v>
+      </c>
+      <c r="F566" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>09/out/2021</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>31351</v>
+      </c>
+      <c r="C567" t="n">
+        <v>502</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0</v>
+      </c>
+      <c r="E567" t="n">
+        <v>22</v>
+      </c>
+      <c r="F567" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>10/out/2021</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>31353</v>
+      </c>
+      <c r="C568" t="n">
+        <v>502</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0</v>
+      </c>
+      <c r="E568" t="n">
+        <v>2</v>
+      </c>
+      <c r="F568" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>11/out/2021</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>31354</v>
+      </c>
+      <c r="C569" t="n">
+        <v>502</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0</v>
+      </c>
+      <c r="E569" t="n">
+        <v>1</v>
+      </c>
+      <c r="F569" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>12/out/2021</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>31358</v>
+      </c>
+      <c r="C570" t="n">
+        <v>502</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0</v>
+      </c>
+      <c r="E570" t="n">
+        <v>4</v>
+      </c>
+      <c r="F570" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>13/out/2021</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>31372</v>
+      </c>
+      <c r="C571" t="n">
+        <v>502</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0</v>
+      </c>
+      <c r="E571" t="n">
+        <v>14</v>
+      </c>
+      <c r="F571" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>14/out/2021</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>31380</v>
+      </c>
+      <c r="C572" t="n">
+        <v>502</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0</v>
+      </c>
+      <c r="E572" t="n">
+        <v>8</v>
+      </c>
+      <c r="F572" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>15/out/2021</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>31396</v>
+      </c>
+      <c r="C573" t="n">
+        <v>502</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0</v>
+      </c>
+      <c r="E573" t="n">
+        <v>16</v>
+      </c>
+      <c r="F573" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>16/out/2021</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>31407</v>
+      </c>
+      <c r="C574" t="n">
+        <v>502</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0</v>
+      </c>
+      <c r="E574" t="n">
+        <v>11</v>
+      </c>
+      <c r="F574" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>17/out/2021</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>31563</v>
+      </c>
+      <c r="C575" t="n">
+        <v>502</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0</v>
+      </c>
+      <c r="E575" t="n">
+        <v>156</v>
+      </c>
+      <c r="F575" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>18/out/2021</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>31563</v>
+      </c>
+      <c r="C576" t="n">
+        <v>502</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0</v>
+      </c>
+      <c r="F576" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>19/out/2021</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>31563</v>
+      </c>
+      <c r="C577" t="n">
+        <v>502</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0</v>
+      </c>
+      <c r="F577" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>20/out/2021</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>31563</v>
+      </c>
+      <c r="C578" t="n">
+        <v>502</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0</v>
+      </c>
+      <c r="E578" t="n">
+        <v>0</v>
+      </c>
+      <c r="F578" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>21/out/2021</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>31622</v>
+      </c>
+      <c r="C579" t="n">
+        <v>503</v>
+      </c>
+      <c r="D579" t="n">
+        <v>1</v>
+      </c>
+      <c r="E579" t="n">
+        <v>59</v>
+      </c>
+      <c r="F579" t="n">
+        <v>354317</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>22/out/2021</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>31622</v>
+      </c>
+      <c r="C580" t="n">
+        <v>503</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0</v>
+      </c>
+      <c r="F580" t="n">
         <v>354317</v>
       </c>
     </row>
